--- a/FoundData/IndonesiaDataInvestigation.xlsx
+++ b/FoundData/IndonesiaDataInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46769C52-E592-1940-9623-7BA40744AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D9F2DF-7647-0D4E-AE5C-EC1EA8740255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{B9A459F0-ADFE-8F4C-A828-A17BEF6887A5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B9A459F0-ADFE-8F4C-A828-A17BEF6887A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24A931F-067A-584E-B925-95282B7AC487}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="184" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F27" sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
